--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lrpap1-Sorl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lrpap1-Sorl1.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.652167666666666</v>
+        <v>5.313941333333333</v>
       </c>
       <c r="H2">
-        <v>16.956503</v>
+        <v>15.941824</v>
       </c>
       <c r="I2">
-        <v>0.186032906594887</v>
+        <v>0.176869630377001</v>
       </c>
       <c r="J2">
-        <v>0.186032906594887</v>
+        <v>0.176869630377001</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>87.94215800000001</v>
+        <v>0.033584</v>
       </c>
       <c r="N2">
-        <v>263.826474</v>
+        <v>0.100752</v>
       </c>
       <c r="O2">
-        <v>0.8507690866039653</v>
+        <v>0.002172419590320632</v>
       </c>
       <c r="P2">
-        <v>0.8507690866039652</v>
+        <v>0.002172419590320632</v>
       </c>
       <c r="Q2">
-        <v>497.0638219844913</v>
+        <v>0.1784634057386666</v>
       </c>
       <c r="R2">
-        <v>4473.574397860421</v>
+        <v>1.606170651648</v>
       </c>
       <c r="S2">
-        <v>0.1582710460220128</v>
+        <v>0.000384235049963766</v>
       </c>
       <c r="T2">
-        <v>0.1582710460220128</v>
+        <v>0.0003842350499637661</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.652167666666666</v>
+        <v>5.313941333333333</v>
       </c>
       <c r="H3">
-        <v>16.956503</v>
+        <v>15.941824</v>
       </c>
       <c r="I3">
-        <v>0.186032906594887</v>
+        <v>0.176869630377001</v>
       </c>
       <c r="J3">
-        <v>0.186032906594887</v>
+        <v>0.176869630377001</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>40.926957</v>
       </c>
       <c r="O3">
-        <v>0.1319783769098539</v>
+        <v>0.8824690642271135</v>
       </c>
       <c r="P3">
-        <v>0.1319783769098539</v>
+        <v>0.8824690642271135</v>
       </c>
       <c r="Q3">
-        <v>77.10867435015233</v>
+        <v>72.49448281661867</v>
       </c>
       <c r="R3">
-        <v>693.978069151371</v>
+        <v>652.450345349568</v>
       </c>
       <c r="S3">
-        <v>0.02455232106421563</v>
+        <v>0.1560819772089875</v>
       </c>
       <c r="T3">
-        <v>0.02455232106421564</v>
+        <v>0.1560819772089875</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.652167666666666</v>
+        <v>5.313941333333333</v>
       </c>
       <c r="H4">
-        <v>16.956503</v>
+        <v>15.941824</v>
       </c>
       <c r="I4">
-        <v>0.186032906594887</v>
+        <v>0.176869630377001</v>
       </c>
       <c r="J4">
-        <v>0.186032906594887</v>
+        <v>0.176869630377001</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>5.350072</v>
       </c>
       <c r="O4">
-        <v>0.01725253648618087</v>
+        <v>0.115358516182566</v>
       </c>
       <c r="P4">
-        <v>0.01725253648618087</v>
+        <v>0.115358516182566</v>
       </c>
       <c r="Q4">
-        <v>10.07983465757955</v>
+        <v>9.47665624570311</v>
       </c>
       <c r="R4">
-        <v>90.71851191821598</v>
+        <v>85.28990621132799</v>
       </c>
       <c r="S4">
-        <v>0.003209539508658566</v>
+        <v>0.02040341811804973</v>
       </c>
       <c r="T4">
-        <v>0.003209539508658567</v>
+        <v>0.02040341811804973</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>49.221867</v>
       </c>
       <c r="I5">
-        <v>0.5400221369958743</v>
+        <v>0.5461014638447835</v>
       </c>
       <c r="J5">
-        <v>0.5400221369958743</v>
+        <v>0.5461014638447835</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>87.94215800000001</v>
+        <v>0.033584</v>
       </c>
       <c r="N5">
-        <v>263.826474</v>
+        <v>0.100752</v>
       </c>
       <c r="O5">
-        <v>0.8507690866039653</v>
+        <v>0.002172419590320632</v>
       </c>
       <c r="P5">
-        <v>0.8507690866039652</v>
+        <v>0.002172419590320632</v>
       </c>
       <c r="Q5">
-        <v>1442.892401589662</v>
+        <v>0.551022393776</v>
       </c>
       <c r="R5">
-        <v>12986.03161430696</v>
+        <v>4.959201543984</v>
       </c>
       <c r="S5">
-        <v>0.4594341402379014</v>
+        <v>0.001186361518359182</v>
       </c>
       <c r="T5">
-        <v>0.4594341402379014</v>
+        <v>0.001186361518359182</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>49.221867</v>
       </c>
       <c r="I6">
-        <v>0.5400221369958743</v>
+        <v>0.5461014638447835</v>
       </c>
       <c r="J6">
-        <v>0.5400221369958743</v>
+        <v>0.5461014638447835</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>40.926957</v>
       </c>
       <c r="O6">
-        <v>0.1319783769098539</v>
+        <v>0.8824690642271135</v>
       </c>
       <c r="P6">
-        <v>0.1319783769098539</v>
+        <v>0.8824690642271135</v>
       </c>
       <c r="Q6">
         <v>223.833470463191</v>
@@ -818,10 +818,10 @@
         <v>2014.501234168719</v>
       </c>
       <c r="S6">
-        <v>0.07127124513610623</v>
+        <v>0.4819176477721629</v>
       </c>
       <c r="T6">
-        <v>0.07127124513610623</v>
+        <v>0.4819176477721629</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>49.221867</v>
       </c>
       <c r="I7">
-        <v>0.5400221369958743</v>
+        <v>0.5461014638447835</v>
       </c>
       <c r="J7">
-        <v>0.5400221369958743</v>
+        <v>0.5461014638447835</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>5.350072</v>
       </c>
       <c r="O7">
-        <v>0.01725253648618087</v>
+        <v>0.115358516182566</v>
       </c>
       <c r="P7">
-        <v>0.01725253648618087</v>
+        <v>0.115358516182566</v>
       </c>
       <c r="Q7">
         <v>29.26005915826934</v>
@@ -880,10 +880,10 @@
         <v>263.340532424424</v>
       </c>
       <c r="S7">
-        <v>0.009316751621866686</v>
+        <v>0.06299745455426142</v>
       </c>
       <c r="T7">
-        <v>0.009316751621866686</v>
+        <v>0.06299745455426142</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>24.969499</v>
       </c>
       <c r="I8">
-        <v>0.2739449564092387</v>
+        <v>0.2770289057782155</v>
       </c>
       <c r="J8">
-        <v>0.2739449564092387</v>
+        <v>0.2770289057782155</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>87.94215800000001</v>
+        <v>0.033584</v>
       </c>
       <c r="N8">
-        <v>263.826474</v>
+        <v>0.100752</v>
       </c>
       <c r="O8">
-        <v>0.8507690866039653</v>
+        <v>0.002172419590320632</v>
       </c>
       <c r="P8">
-        <v>0.8507690866039652</v>
+        <v>0.002172419590320632</v>
       </c>
       <c r="Q8">
-        <v>731.9572087462807</v>
+        <v>0.2795252181386666</v>
       </c>
       <c r="R8">
-        <v>6587.614878716527</v>
+        <v>2.515726963248</v>
       </c>
       <c r="S8">
-        <v>0.2330639003440511</v>
+        <v>0.000601823021997684</v>
       </c>
       <c r="T8">
-        <v>0.2330639003440511</v>
+        <v>0.0006018230219976841</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>24.969499</v>
       </c>
       <c r="I9">
-        <v>0.2739449564092387</v>
+        <v>0.2770289057782155</v>
       </c>
       <c r="J9">
-        <v>0.2739449564092387</v>
+        <v>0.2770289057782155</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>40.926957</v>
       </c>
       <c r="O9">
-        <v>0.1319783769098539</v>
+        <v>0.8824690642271135</v>
       </c>
       <c r="P9">
-        <v>0.1319783769098539</v>
+        <v>0.8824690642271135</v>
       </c>
       <c r="Q9">
         <v>113.5472902093937</v>
@@ -1004,10 +1004,10 @@
         <v>1021.925611884543</v>
       </c>
       <c r="S9">
-        <v>0.03615481070953199</v>
+        <v>0.2444694392459631</v>
       </c>
       <c r="T9">
-        <v>0.036154810709532</v>
+        <v>0.2444694392459631</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>24.969499</v>
       </c>
       <c r="I10">
-        <v>0.2739449564092387</v>
+        <v>0.2770289057782155</v>
       </c>
       <c r="J10">
-        <v>0.2739449564092387</v>
+        <v>0.2770289057782155</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>5.350072</v>
       </c>
       <c r="O10">
-        <v>0.01725253648618087</v>
+        <v>0.115358516182566</v>
       </c>
       <c r="P10">
-        <v>0.01725253648618087</v>
+        <v>0.115358516182566</v>
       </c>
       <c r="Q10">
         <v>14.84317971710311</v>
@@ -1066,10 +1066,10 @@
         <v>133.588617453928</v>
       </c>
       <c r="S10">
-        <v>0.004726245355655618</v>
+        <v>0.03195764351025482</v>
       </c>
       <c r="T10">
-        <v>0.004726245355655619</v>
+        <v>0.03195764351025482</v>
       </c>
     </row>
   </sheetData>
